--- a/Code/Results/Cases/Case_0_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_160/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.008222300014221</v>
+        <v>7.240679918064295</v>
       </c>
       <c r="D2">
-        <v>4.023242394518367</v>
+        <v>5.821966626816713</v>
       </c>
       <c r="E2">
-        <v>6.997955438955176</v>
+        <v>12.46065815797079</v>
       </c>
       <c r="F2">
-        <v>50.96926709039356</v>
+        <v>53.88144777410825</v>
       </c>
       <c r="G2">
-        <v>77.27070697954863</v>
+        <v>71.55053117575936</v>
       </c>
       <c r="H2">
-        <v>20.05198696174887</v>
+        <v>24.17023702721602</v>
       </c>
       <c r="I2">
-        <v>37.1855263091887</v>
+        <v>40.9835502479899</v>
       </c>
       <c r="J2">
-        <v>6.198928300777724</v>
+        <v>10.92775514833046</v>
       </c>
       <c r="L2">
-        <v>5.732412796492711</v>
+        <v>10.45052131975529</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.021610189517693</v>
+        <v>7.253979846252999</v>
       </c>
       <c r="D3">
-        <v>3.929214474692583</v>
+        <v>5.803469237481298</v>
       </c>
       <c r="E3">
-        <v>6.98646219203866</v>
+        <v>12.48958818472225</v>
       </c>
       <c r="F3">
-        <v>48.08272518528712</v>
+        <v>53.47938016116055</v>
       </c>
       <c r="G3">
-        <v>72.38739080079054</v>
+        <v>70.64340532633257</v>
       </c>
       <c r="H3">
-        <v>19.08768903050787</v>
+        <v>24.08215247237879</v>
       </c>
       <c r="I3">
-        <v>35.17062153561525</v>
+        <v>40.73299499319318</v>
       </c>
       <c r="J3">
-        <v>6.174994697444691</v>
+        <v>10.9529646677571</v>
       </c>
       <c r="L3">
-        <v>5.747033859597419</v>
+        <v>10.47620201549809</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.031132723759508</v>
+        <v>7.26271621327336</v>
       </c>
       <c r="D4">
-        <v>3.87190796054783</v>
+        <v>5.791878923515848</v>
       </c>
       <c r="E4">
-        <v>6.983598960864159</v>
+        <v>12.50899615333631</v>
       </c>
       <c r="F4">
-        <v>46.29382814374293</v>
+        <v>53.24722460944307</v>
       </c>
       <c r="G4">
-        <v>69.33276362984347</v>
+        <v>70.10457091085938</v>
       </c>
       <c r="H4">
-        <v>18.49783005581279</v>
+        <v>24.03432458196458</v>
       </c>
       <c r="I4">
-        <v>33.92652645948274</v>
+        <v>40.59028273905891</v>
       </c>
       <c r="J4">
-        <v>6.164524498336776</v>
+        <v>10.97000095944364</v>
       </c>
       <c r="L4">
-        <v>5.759011925596173</v>
+        <v>10.49323879232863</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.035327292374931</v>
+        <v>7.266420037099552</v>
       </c>
       <c r="D5">
-        <v>3.848620435415167</v>
+        <v>5.78709693883918</v>
       </c>
       <c r="E5">
-        <v>6.983439412808829</v>
+        <v>12.51731877923824</v>
       </c>
       <c r="F5">
-        <v>45.56089093736978</v>
+        <v>53.15639101174025</v>
       </c>
       <c r="G5">
-        <v>68.07395465342816</v>
+        <v>69.88979535565961</v>
       </c>
       <c r="H5">
-        <v>18.25808585732033</v>
+        <v>24.01641548997419</v>
       </c>
       <c r="I5">
-        <v>33.41796540613179</v>
+        <v>40.53496255053431</v>
       </c>
       <c r="J5">
-        <v>6.161266563479392</v>
+        <v>10.97733491058786</v>
       </c>
       <c r="L5">
-        <v>5.764618093531253</v>
+        <v>10.50050077123841</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.036042410356456</v>
+        <v>7.267043741598628</v>
       </c>
       <c r="D6">
-        <v>3.844756400186017</v>
+        <v>5.786299331798079</v>
       </c>
       <c r="E6">
-        <v>6.983472446486888</v>
+        <v>12.51872573618098</v>
       </c>
       <c r="F6">
-        <v>45.43895973981924</v>
+        <v>53.14153789802576</v>
       </c>
       <c r="G6">
-        <v>67.86409485279916</v>
+        <v>69.85442899561012</v>
       </c>
       <c r="H6">
-        <v>18.21831778196129</v>
+        <v>24.0135373898203</v>
       </c>
       <c r="I6">
-        <v>33.33343151343939</v>
+        <v>40.52594897505884</v>
       </c>
       <c r="J6">
-        <v>6.16078502697186</v>
+        <v>10.9785763507118</v>
       </c>
       <c r="L6">
-        <v>5.765591972906408</v>
+        <v>10.50172591506588</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.031188037864162</v>
+        <v>7.262765582146261</v>
       </c>
       <c r="D7">
-        <v>3.871593683080558</v>
+        <v>5.791814670616978</v>
       </c>
       <c r="E7">
-        <v>6.983592790471565</v>
+        <v>12.50910671986533</v>
       </c>
       <c r="F7">
-        <v>46.28395902039275</v>
+        <v>53.24598423564467</v>
       </c>
       <c r="G7">
-        <v>69.31584321374309</v>
+        <v>70.10165461186159</v>
       </c>
       <c r="H7">
-        <v>18.49459409708229</v>
+        <v>24.03407664256475</v>
       </c>
       <c r="I7">
-        <v>33.91967390133173</v>
+        <v>40.5895251419211</v>
       </c>
       <c r="J7">
-        <v>6.164476543945692</v>
+        <v>10.97009828257198</v>
       </c>
       <c r="L7">
-        <v>5.759084633730138</v>
+        <v>10.49333543642013</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.012559411800798</v>
+        <v>7.245147584407692</v>
       </c>
       <c r="D8">
-        <v>3.990705437899581</v>
+        <v>5.815636878004721</v>
       </c>
       <c r="E8">
-        <v>6.993092390373004</v>
+        <v>12.47029192098302</v>
       </c>
       <c r="F8">
-        <v>49.97747344385763</v>
+        <v>53.73980567169957</v>
       </c>
       <c r="G8">
-        <v>75.5985571397588</v>
+        <v>71.23413647710709</v>
       </c>
       <c r="H8">
-        <v>19.71905386749544</v>
+        <v>24.13857231598908</v>
       </c>
       <c r="I8">
-        <v>36.49227087827997</v>
+        <v>40.89487285550843</v>
       </c>
       <c r="J8">
-        <v>6.189765248471031</v>
+        <v>10.93612404254448</v>
       </c>
       <c r="L8">
-        <v>5.736812619599592</v>
+        <v>10.45911289237452</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.98709655211169</v>
+        <v>7.215108822381551</v>
       </c>
       <c r="D9">
-        <v>4.230001989537775</v>
+        <v>5.860518890367795</v>
       </c>
       <c r="E9">
-        <v>7.047380250855867</v>
+        <v>12.40722232928423</v>
       </c>
       <c r="F9">
-        <v>57.09381831936131</v>
+        <v>54.82147432476124</v>
       </c>
       <c r="G9">
-        <v>87.49058987618604</v>
+        <v>73.58779030816869</v>
       </c>
       <c r="H9">
-        <v>22.13923477360926</v>
+        <v>24.3926933820049</v>
       </c>
       <c r="I9">
-        <v>41.4847381901082</v>
+        <v>41.58009133903971</v>
       </c>
       <c r="J9">
-        <v>6.275592338524874</v>
+        <v>10.88186553487734</v>
       </c>
       <c r="L9">
-        <v>5.718458387153196</v>
+        <v>10.40205533037947</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.976426723862312</v>
+        <v>7.195769984867233</v>
       </c>
       <c r="D10">
-        <v>4.413428665523135</v>
+        <v>5.892397699004501</v>
       </c>
       <c r="E10">
-        <v>7.112826884979453</v>
+        <v>12.36883266751558</v>
       </c>
       <c r="F10">
-        <v>62.27483430558003</v>
+        <v>55.68014242145668</v>
       </c>
       <c r="G10">
-        <v>96.0566624820071</v>
+        <v>75.382615947738</v>
       </c>
       <c r="H10">
-        <v>24.00707406707815</v>
+        <v>24.60868663556985</v>
       </c>
       <c r="I10">
-        <v>45.14094566052781</v>
+        <v>42.1333977960884</v>
       </c>
       <c r="J10">
-        <v>6.365107071604941</v>
+        <v>10.84954933826324</v>
       </c>
       <c r="L10">
-        <v>5.72286741532506</v>
+        <v>10.36624493908684</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.973711930724494</v>
+        <v>7.187561265708159</v>
       </c>
       <c r="D11">
-        <v>4.499789174716253</v>
+        <v>5.90666691072355</v>
       </c>
       <c r="E11">
-        <v>7.149193012995855</v>
+        <v>12.35309286705555</v>
       </c>
       <c r="F11">
-        <v>64.73354469756242</v>
+        <v>56.08346203390886</v>
       </c>
       <c r="G11">
-        <v>99.97241910847362</v>
+        <v>76.21001617407882</v>
       </c>
       <c r="H11">
-        <v>24.97360794458556</v>
+        <v>24.71311884555085</v>
       </c>
       <c r="I11">
-        <v>46.9723188153814</v>
+        <v>42.39525773261945</v>
       </c>
       <c r="J11">
-        <v>6.412776096033557</v>
+        <v>10.83648883126477</v>
       </c>
       <c r="L11">
-        <v>5.729437841755491</v>
+        <v>10.3512767649242</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.973035869606883</v>
+        <v>7.184537182689876</v>
       </c>
       <c r="D12">
-        <v>4.533052493680898</v>
+        <v>5.912037162253357</v>
       </c>
       <c r="E12">
-        <v>7.164019815385308</v>
+        <v>12.34738042714578</v>
       </c>
       <c r="F12">
-        <v>65.67635440602093</v>
+        <v>56.23790833005967</v>
       </c>
       <c r="G12">
-        <v>101.4549567168312</v>
+        <v>76.52462051688899</v>
       </c>
       <c r="H12">
-        <v>25.33975026895303</v>
+        <v>24.75353391884828</v>
       </c>
       <c r="I12">
-        <v>47.67203444986171</v>
+        <v>42.49581509440115</v>
       </c>
       <c r="J12">
-        <v>6.431951569778442</v>
+        <v>10.83177920044877</v>
       </c>
       <c r="L12">
-        <v>5.732652950695298</v>
+        <v>10.34579855375384</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.973164977695458</v>
+        <v>7.185184724326795</v>
       </c>
       <c r="D13">
-        <v>4.525861062596789</v>
+        <v>5.910882054456971</v>
       </c>
       <c r="E13">
-        <v>7.160777692461073</v>
+        <v>12.3485996788087</v>
       </c>
       <c r="F13">
-        <v>65.4732473877694</v>
+        <v>56.20457092824645</v>
       </c>
       <c r="G13">
-        <v>101.1356170780169</v>
+        <v>76.45681216362927</v>
       </c>
       <c r="H13">
-        <v>25.26087394547738</v>
+        <v>24.74479148950042</v>
       </c>
       <c r="I13">
-        <v>47.52132790535183</v>
+        <v>42.47409719890808</v>
       </c>
       <c r="J13">
-        <v>6.427769503459989</v>
+        <v>10.83278299952347</v>
       </c>
       <c r="L13">
-        <v>5.731926901197982</v>
+        <v>10.34696994147893</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.973648958760513</v>
+        <v>7.187310782939234</v>
       </c>
       <c r="D14">
-        <v>4.502513593573135</v>
+        <v>5.907109388213586</v>
       </c>
       <c r="E14">
-        <v>7.15039096967127</v>
+        <v>12.35261793331725</v>
       </c>
       <c r="F14">
-        <v>64.81108859456135</v>
+        <v>56.0961346323373</v>
       </c>
       <c r="G14">
-        <v>100.094372293513</v>
+        <v>76.23587471576265</v>
       </c>
       <c r="H14">
-        <v>25.00372265578526</v>
+        <v>24.71642652038837</v>
       </c>
       <c r="I14">
-        <v>47.02988296089134</v>
+        <v>42.40350303253044</v>
       </c>
       <c r="J14">
-        <v>6.414330329600324</v>
+        <v>10.83609663402406</v>
       </c>
       <c r="L14">
-        <v>5.729687323063588</v>
+        <v>10.35082226427562</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.973992772214888</v>
+        <v>7.188624036432528</v>
       </c>
       <c r="D15">
-        <v>4.488290402540138</v>
+        <v>5.904794206737927</v>
       </c>
       <c r="E15">
-        <v>7.14416985440653</v>
+        <v>12.35511151146542</v>
       </c>
       <c r="F15">
-        <v>64.40561907014465</v>
+        <v>56.02993468999211</v>
       </c>
       <c r="G15">
-        <v>99.45665433760664</v>
+        <v>76.10070318765429</v>
       </c>
       <c r="H15">
-        <v>24.84625494827923</v>
+        <v>24.69916471176806</v>
       </c>
       <c r="I15">
-        <v>46.72885690534964</v>
+        <v>42.36044200767272</v>
       </c>
       <c r="J15">
-        <v>6.406249024768888</v>
+        <v>10.83815708467471</v>
       </c>
       <c r="L15">
-        <v>5.728412541403665</v>
+        <v>10.35320664912932</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.976650714719174</v>
+        <v>7.196318265947841</v>
       </c>
       <c r="D16">
-        <v>4.40785474864327</v>
+        <v>5.891460513898409</v>
       </c>
       <c r="E16">
-        <v>7.11059167621968</v>
+        <v>12.3698959881672</v>
       </c>
       <c r="F16">
-        <v>62.12076840972473</v>
+        <v>55.65403096743179</v>
       </c>
       <c r="G16">
-        <v>95.80052674167229</v>
+        <v>75.32873880181516</v>
       </c>
       <c r="H16">
-        <v>23.94388056361744</v>
+        <v>24.60198441261328</v>
       </c>
       <c r="I16">
-        <v>45.03201460537986</v>
+        <v>42.11648363326403</v>
       </c>
       <c r="J16">
-        <v>6.362141718583211</v>
+        <v>10.8504358995421</v>
       </c>
       <c r="L16">
-        <v>5.722535596638987</v>
+        <v>10.3672497312335</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.9788571814644</v>
+        <v>7.201188997336139</v>
       </c>
       <c r="D17">
-        <v>4.359346824892368</v>
+        <v>5.883221331877565</v>
       </c>
       <c r="E17">
-        <v>7.0917515570052</v>
+        <v>12.37940729992341</v>
       </c>
       <c r="F17">
-        <v>60.7711858699455</v>
+        <v>55.42660414023241</v>
       </c>
       <c r="G17">
-        <v>93.55859340514134</v>
+        <v>74.85775819926107</v>
       </c>
       <c r="H17">
-        <v>23.41380594831915</v>
+        <v>24.54393606585003</v>
       </c>
       <c r="I17">
-        <v>44.0783140677479</v>
+        <v>41.96938018930092</v>
       </c>
       <c r="J17">
-        <v>6.336944168997329</v>
+        <v>10.85838883625912</v>
       </c>
       <c r="L17">
-        <v>5.720145412000019</v>
+        <v>10.37620318873229</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.980324371893536</v>
+        <v>7.204045931745183</v>
       </c>
       <c r="D18">
-        <v>4.331710822529307</v>
+        <v>5.878460461598061</v>
       </c>
       <c r="E18">
-        <v>7.081528379392843</v>
+        <v>12.38504021210547</v>
       </c>
       <c r="F18">
-        <v>59.99517610305084</v>
+        <v>55.29699710012249</v>
       </c>
       <c r="G18">
-        <v>92.28157287260254</v>
+        <v>74.58790791313933</v>
       </c>
       <c r="H18">
-        <v>23.14370572491722</v>
+        <v>24.5111307440996</v>
       </c>
       <c r="I18">
-        <v>43.53036768058139</v>
+        <v>41.8857303390884</v>
       </c>
       <c r="J18">
-        <v>6.323096427856186</v>
+        <v>10.86311753393247</v>
       </c>
       <c r="L18">
-        <v>5.719195348749383</v>
+        <v>10.38147744019919</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.980853990340881</v>
+        <v>7.205022766883536</v>
       </c>
       <c r="D19">
-        <v>4.322395453901467</v>
+        <v>5.876844741607141</v>
       </c>
       <c r="E19">
-        <v>7.078169356014523</v>
+        <v>12.3869752874138</v>
       </c>
       <c r="F19">
-        <v>59.73242719974751</v>
+        <v>55.25332424940258</v>
       </c>
       <c r="G19">
-        <v>91.84878956892737</v>
+        <v>74.49672950215754</v>
       </c>
       <c r="H19">
-        <v>23.05238445599011</v>
+        <v>24.50012403820394</v>
       </c>
       <c r="I19">
-        <v>43.34491295016555</v>
+        <v>41.85757474748246</v>
       </c>
       <c r="J19">
-        <v>6.318515232531528</v>
+        <v>10.86474509740397</v>
       </c>
       <c r="L19">
-        <v>5.718944687621127</v>
+        <v>10.3832845937377</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.978601513159821</v>
+        <v>7.200664765968572</v>
       </c>
       <c r="D20">
-        <v>4.364482299505187</v>
+        <v>5.884100672650344</v>
       </c>
       <c r="E20">
-        <v>7.093692948187011</v>
+        <v>12.37837801159862</v>
       </c>
       <c r="F20">
-        <v>60.91481577051005</v>
+        <v>55.45069040463446</v>
       </c>
       <c r="G20">
-        <v>93.79476661906494</v>
+        <v>74.90778877801739</v>
       </c>
       <c r="H20">
-        <v>23.46386083124084</v>
+        <v>24.55005525359931</v>
       </c>
       <c r="I20">
-        <v>44.17976746074403</v>
+        <v>41.98494068367553</v>
       </c>
       <c r="J20">
-        <v>6.339558888313508</v>
+        <v>10.85752625329142</v>
       </c>
       <c r="L20">
-        <v>5.720355428443452</v>
+        <v>10.37523719837469</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.973496834655325</v>
+        <v>7.186684019975939</v>
       </c>
       <c r="D21">
-        <v>4.509354789429887</v>
+        <v>5.908218410409638</v>
       </c>
       <c r="E21">
-        <v>7.153412182665638</v>
+        <v>12.35143094719349</v>
       </c>
       <c r="F21">
-        <v>65.00555089225486</v>
+        <v>56.12793926527944</v>
       </c>
       <c r="G21">
-        <v>100.4001885437701</v>
+        <v>76.30073676084916</v>
       </c>
       <c r="H21">
-        <v>25.07924313833829</v>
+        <v>24.72473457970336</v>
       </c>
       <c r="I21">
-        <v>47.17422932472725</v>
+        <v>42.42420086915503</v>
       </c>
       <c r="J21">
-        <v>6.418246098067653</v>
+        <v>10.83511692977272</v>
       </c>
       <c r="L21">
-        <v>5.730324774231432</v>
+        <v>10.34968559119878</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.972242500037892</v>
+        <v>7.178038512520907</v>
       </c>
       <c r="D22">
-        <v>4.60739946259415</v>
+        <v>5.92378741528628</v>
       </c>
       <c r="E22">
-        <v>7.198663071600936</v>
+        <v>12.33526432029696</v>
       </c>
       <c r="F22">
-        <v>67.75313180334589</v>
+        <v>56.58052096965572</v>
       </c>
       <c r="G22">
-        <v>104.7190541568758</v>
+        <v>77.21847383996257</v>
       </c>
       <c r="H22">
-        <v>26.14624714776079</v>
+        <v>24.84395200054333</v>
       </c>
       <c r="I22">
-        <v>49.21207732095196</v>
+        <v>42.71939213923248</v>
       </c>
       <c r="J22">
-        <v>6.47630498706001</v>
+        <v>10.82184741418479</v>
       </c>
       <c r="L22">
-        <v>5.741122267646039</v>
+        <v>10.33409299526906</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.97270338737155</v>
+        <v>7.18260787526857</v>
       </c>
       <c r="D23">
-        <v>4.554706469285391</v>
+        <v>5.915495547875958</v>
       </c>
       <c r="E23">
-        <v>7.173900952524588</v>
+        <v>12.34376055245099</v>
       </c>
       <c r="F23">
-        <v>66.28553338547385</v>
+        <v>56.33809516110065</v>
       </c>
       <c r="G23">
-        <v>102.4126265634026</v>
+        <v>76.72807974620704</v>
       </c>
       <c r="H23">
-        <v>25.57632196383973</v>
+        <v>24.77986769463016</v>
       </c>
       <c r="I23">
-        <v>48.12394817062474</v>
+        <v>42.56112286494065</v>
       </c>
       <c r="J23">
-        <v>6.444662201738899</v>
+        <v>10.82880360110849</v>
       </c>
       <c r="L23">
-        <v>5.73494025097277</v>
+        <v>10.34231384795046</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.978716485188138</v>
+        <v>7.20090159438558</v>
       </c>
       <c r="D24">
-        <v>4.362159777076183</v>
+        <v>5.883703197632067</v>
       </c>
       <c r="E24">
-        <v>7.092813358462494</v>
+        <v>12.37884283974535</v>
       </c>
       <c r="F24">
-        <v>60.84988118423396</v>
+        <v>55.4397974339599</v>
       </c>
       <c r="G24">
-        <v>93.68800064984927</v>
+        <v>74.88516705758192</v>
       </c>
       <c r="H24">
-        <v>23.44122879915167</v>
+        <v>24.54728699991248</v>
       </c>
       <c r="I24">
-        <v>44.13389938566743</v>
+        <v>41.97790290789926</v>
       </c>
       <c r="J24">
-        <v>6.338374793484173</v>
+        <v>10.85791573976633</v>
       </c>
       <c r="L24">
-        <v>5.720259164210882</v>
+        <v>10.37567352767844</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>3.99268376432664</v>
+        <v>7.222754232826439</v>
       </c>
       <c r="D25">
-        <v>4.164282244540154</v>
+        <v>5.848571135465708</v>
       </c>
       <c r="E25">
-        <v>7.028514396541976</v>
+        <v>12.42288824186719</v>
       </c>
       <c r="F25">
-        <v>55.18037751471081</v>
+        <v>54.51722893744711</v>
       </c>
       <c r="G25">
-        <v>84.31492145129253</v>
+        <v>72.93841039704155</v>
       </c>
       <c r="H25">
-        <v>21.48189226217031</v>
+        <v>24.31874453786628</v>
       </c>
       <c r="I25">
-        <v>40.13855205133922</v>
+        <v>41.38574222493581</v>
       </c>
       <c r="J25">
-        <v>6.248082181768754</v>
+        <v>10.89521915254888</v>
       </c>
       <c r="L25">
-        <v>5.720481797459287</v>
+        <v>10.41641664866664</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_160/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.240679918064295</v>
+        <v>4.008222300014364</v>
       </c>
       <c r="D2">
-        <v>5.821966626816713</v>
+        <v>4.023242394518168</v>
       </c>
       <c r="E2">
-        <v>12.46065815797079</v>
+        <v>6.997955438955129</v>
       </c>
       <c r="F2">
-        <v>53.88144777410825</v>
+        <v>50.96926709039362</v>
       </c>
       <c r="G2">
-        <v>71.55053117575936</v>
+        <v>77.27070697954879</v>
       </c>
       <c r="H2">
-        <v>24.17023702721602</v>
+        <v>20.05198696174887</v>
       </c>
       <c r="I2">
-        <v>40.9835502479899</v>
+        <v>37.18552630918876</v>
       </c>
       <c r="J2">
-        <v>10.92775514833046</v>
+        <v>6.198928300777705</v>
       </c>
       <c r="L2">
-        <v>10.45052131975529</v>
+        <v>5.732412796492599</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.253979846252999</v>
+        <v>4.021610189517692</v>
       </c>
       <c r="D3">
-        <v>5.803469237481298</v>
+        <v>3.929214474692386</v>
       </c>
       <c r="E3">
-        <v>12.48958818472225</v>
+        <v>6.986462192038536</v>
       </c>
       <c r="F3">
-        <v>53.47938016116055</v>
+        <v>48.08272518528717</v>
       </c>
       <c r="G3">
-        <v>70.64340532633257</v>
+        <v>72.38739080079063</v>
       </c>
       <c r="H3">
-        <v>24.08215247237879</v>
+        <v>19.0876890305079</v>
       </c>
       <c r="I3">
-        <v>40.73299499319318</v>
+        <v>35.1706215356153</v>
       </c>
       <c r="J3">
-        <v>10.9529646677571</v>
+        <v>6.174994697444655</v>
       </c>
       <c r="L3">
-        <v>10.47620201549809</v>
+        <v>5.747033859597303</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.26271621327336</v>
+        <v>4.031132723759763</v>
       </c>
       <c r="D4">
-        <v>5.791878923515848</v>
+        <v>3.871907960547964</v>
       </c>
       <c r="E4">
-        <v>12.50899615333631</v>
+        <v>6.983598960864212</v>
       </c>
       <c r="F4">
-        <v>53.24722460944307</v>
+        <v>46.29382814374286</v>
       </c>
       <c r="G4">
-        <v>70.10457091085938</v>
+        <v>69.33276362984338</v>
       </c>
       <c r="H4">
-        <v>24.03432458196458</v>
+        <v>18.49783005581277</v>
       </c>
       <c r="I4">
-        <v>40.59028273905891</v>
+        <v>33.9265264594827</v>
       </c>
       <c r="J4">
-        <v>10.97000095944364</v>
+        <v>6.164524498336852</v>
       </c>
       <c r="L4">
-        <v>10.49323879232863</v>
+        <v>5.759011925596115</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.266420037099552</v>
+        <v>4.035327292374681</v>
       </c>
       <c r="D5">
-        <v>5.78709693883918</v>
+        <v>3.848620435415034</v>
       </c>
       <c r="E5">
-        <v>12.51731877923824</v>
+        <v>6.983439412808829</v>
       </c>
       <c r="F5">
-        <v>53.15639101174025</v>
+        <v>45.56089093736978</v>
       </c>
       <c r="G5">
-        <v>69.88979535565961</v>
+        <v>68.0739546534282</v>
       </c>
       <c r="H5">
-        <v>24.01641548997419</v>
+        <v>18.25808585732029</v>
       </c>
       <c r="I5">
-        <v>40.53496255053431</v>
+        <v>33.41796540613177</v>
       </c>
       <c r="J5">
-        <v>10.97733491058786</v>
+        <v>6.161266563479389</v>
       </c>
       <c r="L5">
-        <v>10.50050077123841</v>
+        <v>5.764618093531372</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.267043741598628</v>
+        <v>4.036042410356588</v>
       </c>
       <c r="D6">
-        <v>5.786299331798079</v>
+        <v>3.844756400185886</v>
       </c>
       <c r="E6">
-        <v>12.51872573618098</v>
+        <v>6.983472446486847</v>
       </c>
       <c r="F6">
-        <v>53.14153789802576</v>
+        <v>45.4389597398191</v>
       </c>
       <c r="G6">
-        <v>69.85442899561012</v>
+        <v>67.86409485279907</v>
       </c>
       <c r="H6">
-        <v>24.0135373898203</v>
+        <v>18.21831778196119</v>
       </c>
       <c r="I6">
-        <v>40.52594897505884</v>
+        <v>33.33343151343931</v>
       </c>
       <c r="J6">
-        <v>10.9785763507118</v>
+        <v>6.160785026971901</v>
       </c>
       <c r="L6">
-        <v>10.50172591506588</v>
+        <v>5.765591972906357</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.262765582146261</v>
+        <v>4.031188037864037</v>
       </c>
       <c r="D7">
-        <v>5.791814670616978</v>
+        <v>3.871593683080421</v>
       </c>
       <c r="E7">
-        <v>12.50910671986533</v>
+        <v>6.983592790471565</v>
       </c>
       <c r="F7">
-        <v>53.24598423564467</v>
+        <v>46.28395902039273</v>
       </c>
       <c r="G7">
-        <v>70.10165461186159</v>
+        <v>69.31584321374299</v>
       </c>
       <c r="H7">
-        <v>24.03407664256475</v>
+        <v>18.49459409708228</v>
       </c>
       <c r="I7">
-        <v>40.5895251419211</v>
+        <v>33.91967390133171</v>
       </c>
       <c r="J7">
-        <v>10.97009828257198</v>
+        <v>6.164476543945709</v>
       </c>
       <c r="L7">
-        <v>10.49333543642013</v>
+        <v>5.759084633730187</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.245147584407692</v>
+        <v>4.012559411800672</v>
       </c>
       <c r="D8">
-        <v>5.815636878004721</v>
+        <v>3.990705437899585</v>
       </c>
       <c r="E8">
-        <v>12.47029192098302</v>
+        <v>6.993092390373016</v>
       </c>
       <c r="F8">
-        <v>53.73980567169957</v>
+        <v>49.97747344385758</v>
       </c>
       <c r="G8">
-        <v>71.23413647710709</v>
+        <v>75.59855713975875</v>
       </c>
       <c r="H8">
-        <v>24.13857231598908</v>
+        <v>19.71905386749542</v>
       </c>
       <c r="I8">
-        <v>40.89487285550843</v>
+        <v>36.49227087827992</v>
       </c>
       <c r="J8">
-        <v>10.93612404254448</v>
+        <v>6.189765248471039</v>
       </c>
       <c r="L8">
-        <v>10.45911289237452</v>
+        <v>5.736812619599597</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7.215108822381551</v>
+        <v>3.987096552111561</v>
       </c>
       <c r="D9">
-        <v>5.860518890367795</v>
+        <v>4.230001989537854</v>
       </c>
       <c r="E9">
-        <v>12.40722232928423</v>
+        <v>7.047380250855874</v>
       </c>
       <c r="F9">
-        <v>54.82147432476124</v>
+        <v>57.09381831936127</v>
       </c>
       <c r="G9">
-        <v>73.58779030816869</v>
+        <v>87.49058987618604</v>
       </c>
       <c r="H9">
-        <v>24.3926933820049</v>
+        <v>22.13923477360926</v>
       </c>
       <c r="I9">
-        <v>41.58009133903971</v>
+        <v>41.4847381901082</v>
       </c>
       <c r="J9">
-        <v>10.88186553487734</v>
+        <v>6.275592338524895</v>
       </c>
       <c r="L9">
-        <v>10.40205533037947</v>
+        <v>5.718458387153253</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.195769984867233</v>
+        <v>3.976426723862319</v>
       </c>
       <c r="D10">
-        <v>5.892397699004501</v>
+        <v>4.413428665523135</v>
       </c>
       <c r="E10">
-        <v>12.36883266751558</v>
+        <v>7.112826884979405</v>
       </c>
       <c r="F10">
-        <v>55.68014242145668</v>
+        <v>62.27483430557997</v>
       </c>
       <c r="G10">
-        <v>75.382615947738</v>
+        <v>96.05666248200693</v>
       </c>
       <c r="H10">
-        <v>24.60868663556985</v>
+        <v>24.00707406707811</v>
       </c>
       <c r="I10">
-        <v>42.1333977960884</v>
+        <v>45.14094566052776</v>
       </c>
       <c r="J10">
-        <v>10.84954933826324</v>
+        <v>6.365107071604929</v>
       </c>
       <c r="L10">
-        <v>10.36624493908684</v>
+        <v>5.722867415325034</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.187561265708159</v>
+        <v>3.973711930724591</v>
       </c>
       <c r="D11">
-        <v>5.90666691072355</v>
+        <v>4.49978917471612</v>
       </c>
       <c r="E11">
-        <v>12.35309286705555</v>
+        <v>7.149193012995898</v>
       </c>
       <c r="F11">
-        <v>56.08346203390886</v>
+        <v>64.73354469756222</v>
       </c>
       <c r="G11">
-        <v>76.21001617407882</v>
+        <v>99.97241910847322</v>
       </c>
       <c r="H11">
-        <v>24.71311884555085</v>
+        <v>24.97360794458548</v>
       </c>
       <c r="I11">
-        <v>42.39525773261945</v>
+        <v>46.97231881538117</v>
       </c>
       <c r="J11">
-        <v>10.83648883126477</v>
+        <v>6.412776096033607</v>
       </c>
       <c r="L11">
-        <v>10.3512767649242</v>
+        <v>5.729437841755484</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7.184537182689876</v>
+        <v>3.973035869606749</v>
       </c>
       <c r="D12">
-        <v>5.912037162253357</v>
+        <v>4.533052493680632</v>
       </c>
       <c r="E12">
-        <v>12.34738042714578</v>
+        <v>7.164019815385257</v>
       </c>
       <c r="F12">
-        <v>56.23790833005967</v>
+        <v>65.67635440602088</v>
       </c>
       <c r="G12">
-        <v>76.52462051688899</v>
+        <v>101.4549567168312</v>
       </c>
       <c r="H12">
-        <v>24.75353391884828</v>
+        <v>25.339750268953</v>
       </c>
       <c r="I12">
-        <v>42.49581509440115</v>
+        <v>47.67203444986165</v>
       </c>
       <c r="J12">
-        <v>10.83177920044877</v>
+        <v>6.431951569778442</v>
       </c>
       <c r="L12">
-        <v>10.34579855375384</v>
+        <v>5.732652950695296</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.185184724326795</v>
+        <v>3.973164977695356</v>
       </c>
       <c r="D13">
-        <v>5.910882054456971</v>
+        <v>4.525861062596725</v>
       </c>
       <c r="E13">
-        <v>12.3485996788087</v>
+        <v>7.160777692461082</v>
       </c>
       <c r="F13">
-        <v>56.20457092824645</v>
+        <v>65.47324738776913</v>
       </c>
       <c r="G13">
-        <v>76.45681216362927</v>
+        <v>101.1356170780164</v>
       </c>
       <c r="H13">
-        <v>24.74479148950042</v>
+        <v>25.26087394547729</v>
       </c>
       <c r="I13">
-        <v>42.47409719890808</v>
+        <v>47.52132790535165</v>
       </c>
       <c r="J13">
-        <v>10.83278299952347</v>
+        <v>6.427769503460009</v>
       </c>
       <c r="L13">
-        <v>10.34696994147893</v>
+        <v>5.731926901198031</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>7.187310782939234</v>
+        <v>3.973648958760402</v>
       </c>
       <c r="D14">
-        <v>5.907109388213586</v>
+        <v>4.502513593573125</v>
       </c>
       <c r="E14">
-        <v>12.35261793331725</v>
+        <v>7.150390969671225</v>
       </c>
       <c r="F14">
-        <v>56.0961346323373</v>
+        <v>64.811088594561</v>
       </c>
       <c r="G14">
-        <v>76.23587471576265</v>
+        <v>100.0943722935124</v>
       </c>
       <c r="H14">
-        <v>24.71642652038837</v>
+        <v>25.00372265578512</v>
       </c>
       <c r="I14">
-        <v>42.40350303253044</v>
+        <v>47.02988296089104</v>
       </c>
       <c r="J14">
-        <v>10.83609663402406</v>
+        <v>6.414330329600301</v>
       </c>
       <c r="L14">
-        <v>10.35082226427562</v>
+        <v>5.729687323063609</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>7.188624036432528</v>
+        <v>3.973992772214991</v>
       </c>
       <c r="D15">
-        <v>5.904794206737927</v>
+        <v>4.488290402540138</v>
       </c>
       <c r="E15">
-        <v>12.35511151146542</v>
+        <v>7.144169854406559</v>
       </c>
       <c r="F15">
-        <v>56.02993468999211</v>
+        <v>64.40561907014444</v>
       </c>
       <c r="G15">
-        <v>76.10070318765429</v>
+        <v>99.45665433760631</v>
       </c>
       <c r="H15">
-        <v>24.69916471176806</v>
+        <v>24.84625494827915</v>
       </c>
       <c r="I15">
-        <v>42.36044200767272</v>
+        <v>46.72885690534947</v>
       </c>
       <c r="J15">
-        <v>10.83815708467471</v>
+        <v>6.406249024768925</v>
       </c>
       <c r="L15">
-        <v>10.35320664912932</v>
+        <v>5.7284125414037</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.196318265947841</v>
+        <v>3.976650714719288</v>
       </c>
       <c r="D16">
-        <v>5.891460513898409</v>
+        <v>4.407854748643281</v>
       </c>
       <c r="E16">
-        <v>12.3698959881672</v>
+        <v>7.110591676219667</v>
       </c>
       <c r="F16">
-        <v>55.65403096743179</v>
+        <v>62.12076840972466</v>
       </c>
       <c r="G16">
-        <v>75.32873880181516</v>
+        <v>95.80052674167214</v>
       </c>
       <c r="H16">
-        <v>24.60198441261328</v>
+        <v>23.94388056361739</v>
       </c>
       <c r="I16">
-        <v>42.11648363326403</v>
+        <v>45.03201460537978</v>
       </c>
       <c r="J16">
-        <v>10.8504358995421</v>
+        <v>6.362141718583191</v>
       </c>
       <c r="L16">
-        <v>10.3672497312335</v>
+        <v>5.722535596638965</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>7.201188997336139</v>
+        <v>3.978857181464286</v>
       </c>
       <c r="D17">
-        <v>5.883221331877565</v>
+        <v>4.359346824892372</v>
       </c>
       <c r="E17">
-        <v>12.37940729992341</v>
+        <v>7.091751557005272</v>
       </c>
       <c r="F17">
-        <v>55.42660414023241</v>
+        <v>60.77118586994536</v>
       </c>
       <c r="G17">
-        <v>74.85775819926107</v>
+        <v>93.55859340514108</v>
       </c>
       <c r="H17">
-        <v>24.54393606585003</v>
+        <v>23.41380594831912</v>
       </c>
       <c r="I17">
-        <v>41.96938018930092</v>
+        <v>44.07831406774783</v>
       </c>
       <c r="J17">
-        <v>10.85838883625912</v>
+        <v>6.336944168997381</v>
       </c>
       <c r="L17">
-        <v>10.37620318873229</v>
+        <v>5.720145412000067</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.204045931745183</v>
+        <v>3.980324371893515</v>
       </c>
       <c r="D18">
-        <v>5.878460461598061</v>
+        <v>4.331710822529248</v>
       </c>
       <c r="E18">
-        <v>12.38504021210547</v>
+        <v>7.081528379392821</v>
       </c>
       <c r="F18">
-        <v>55.29699710012249</v>
+        <v>59.99517610305102</v>
       </c>
       <c r="G18">
-        <v>74.58790791313933</v>
+        <v>92.28157287260287</v>
       </c>
       <c r="H18">
-        <v>24.5111307440996</v>
+        <v>23.14370572491726</v>
       </c>
       <c r="I18">
-        <v>41.8857303390884</v>
+        <v>43.53036768058149</v>
       </c>
       <c r="J18">
-        <v>10.86311753393247</v>
+        <v>6.323096427856149</v>
       </c>
       <c r="L18">
-        <v>10.38147744019919</v>
+        <v>5.719195348749311</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.205022766883536</v>
+        <v>3.98085399034089</v>
       </c>
       <c r="D19">
-        <v>5.876844741607141</v>
+        <v>4.322395453901393</v>
       </c>
       <c r="E19">
-        <v>12.3869752874138</v>
+        <v>7.078169356014564</v>
       </c>
       <c r="F19">
-        <v>55.25332424940258</v>
+        <v>59.73242719974756</v>
       </c>
       <c r="G19">
-        <v>74.49672950215754</v>
+        <v>91.84878956892739</v>
       </c>
       <c r="H19">
-        <v>24.50012403820394</v>
+        <v>23.05238445599014</v>
       </c>
       <c r="I19">
-        <v>41.85757474748246</v>
+        <v>43.34491295016559</v>
       </c>
       <c r="J19">
-        <v>10.86474509740397</v>
+        <v>6.318515232531585</v>
       </c>
       <c r="L19">
-        <v>10.3832845937377</v>
+        <v>5.718944687621121</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.200664765968572</v>
+        <v>3.978601513159827</v>
       </c>
       <c r="D20">
-        <v>5.884100672650344</v>
+        <v>4.364482299505241</v>
       </c>
       <c r="E20">
-        <v>12.37837801159862</v>
+        <v>7.093692948186986</v>
       </c>
       <c r="F20">
-        <v>55.45069040463446</v>
+        <v>60.91481577051011</v>
       </c>
       <c r="G20">
-        <v>74.90778877801739</v>
+        <v>93.7947666190651</v>
       </c>
       <c r="H20">
-        <v>24.55005525359931</v>
+        <v>23.46386083124084</v>
       </c>
       <c r="I20">
-        <v>41.98494068367553</v>
+        <v>44.17976746074406</v>
       </c>
       <c r="J20">
-        <v>10.85752625329142</v>
+        <v>6.339558888313459</v>
       </c>
       <c r="L20">
-        <v>10.37523719837469</v>
+        <v>5.72035542844341</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.186684019975939</v>
+        <v>3.97349683465531</v>
       </c>
       <c r="D21">
-        <v>5.908218410409638</v>
+        <v>4.509354789429955</v>
       </c>
       <c r="E21">
-        <v>12.35143094719349</v>
+        <v>7.153412182665638</v>
       </c>
       <c r="F21">
-        <v>56.12793926527944</v>
+        <v>65.00555089225458</v>
       </c>
       <c r="G21">
-        <v>76.30073676084916</v>
+        <v>100.4001885437696</v>
       </c>
       <c r="H21">
-        <v>24.72473457970336</v>
+        <v>25.07924313833815</v>
       </c>
       <c r="I21">
-        <v>42.42420086915503</v>
+        <v>47.174229324727</v>
       </c>
       <c r="J21">
-        <v>10.83511692977272</v>
+        <v>6.418246098067646</v>
       </c>
       <c r="L21">
-        <v>10.34968559119878</v>
+        <v>5.730324774231485</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>7.178038512520907</v>
+        <v>3.972242500037781</v>
       </c>
       <c r="D22">
-        <v>5.92378741528628</v>
+        <v>4.60739946259414</v>
       </c>
       <c r="E22">
-        <v>12.33526432029696</v>
+        <v>7.198663071600969</v>
       </c>
       <c r="F22">
-        <v>56.58052096965572</v>
+        <v>67.75313180334605</v>
       </c>
       <c r="G22">
-        <v>77.21847383996257</v>
+        <v>104.7190541568761</v>
       </c>
       <c r="H22">
-        <v>24.84395200054333</v>
+        <v>26.14624714776084</v>
       </c>
       <c r="I22">
-        <v>42.71939213923248</v>
+        <v>49.2120773209521</v>
       </c>
       <c r="J22">
-        <v>10.82184741418479</v>
+        <v>6.476304987060007</v>
       </c>
       <c r="L22">
-        <v>10.33409299526906</v>
+        <v>5.741122267646044</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>7.18260787526857</v>
+        <v>3.972703387371322</v>
       </c>
       <c r="D23">
-        <v>5.915495547875958</v>
+        <v>4.554706469285052</v>
       </c>
       <c r="E23">
-        <v>12.34376055245099</v>
+        <v>7.173900952524546</v>
       </c>
       <c r="F23">
-        <v>56.33809516110065</v>
+        <v>66.28553338547395</v>
       </c>
       <c r="G23">
-        <v>76.72807974620704</v>
+        <v>102.4126265634026</v>
       </c>
       <c r="H23">
-        <v>24.77986769463016</v>
+        <v>25.57632196383975</v>
       </c>
       <c r="I23">
-        <v>42.56112286494065</v>
+        <v>48.12394817062477</v>
       </c>
       <c r="J23">
-        <v>10.82880360110849</v>
+        <v>6.444662201738945</v>
       </c>
       <c r="L23">
-        <v>10.34231384795046</v>
+        <v>5.734940250972798</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>7.20090159438558</v>
+        <v>3.978716485188131</v>
       </c>
       <c r="D24">
-        <v>5.883703197632067</v>
+        <v>4.362159777076045</v>
       </c>
       <c r="E24">
-        <v>12.37884283974535</v>
+        <v>7.09281335846247</v>
       </c>
       <c r="F24">
-        <v>55.4397974339599</v>
+        <v>60.8498811842339</v>
       </c>
       <c r="G24">
-        <v>74.88516705758192</v>
+        <v>93.68800064984906</v>
       </c>
       <c r="H24">
-        <v>24.54728699991248</v>
+        <v>23.44122879915167</v>
       </c>
       <c r="I24">
-        <v>41.97790290789926</v>
+        <v>44.13389938566738</v>
       </c>
       <c r="J24">
-        <v>10.85791573976633</v>
+        <v>6.338374793484168</v>
       </c>
       <c r="L24">
-        <v>10.37567352767844</v>
+        <v>5.720259164210846</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>7.222754232826439</v>
+        <v>3.992683764326529</v>
       </c>
       <c r="D25">
-        <v>5.848571135465708</v>
+        <v>4.16428224454027</v>
       </c>
       <c r="E25">
-        <v>12.42288824186719</v>
+        <v>7.028514396542089</v>
       </c>
       <c r="F25">
-        <v>54.51722893744711</v>
+        <v>55.1803775147109</v>
       </c>
       <c r="G25">
-        <v>72.93841039704155</v>
+        <v>84.31492145129258</v>
       </c>
       <c r="H25">
-        <v>24.31874453786628</v>
+        <v>21.48189226217033</v>
       </c>
       <c r="I25">
-        <v>41.38574222493581</v>
+        <v>40.13855205133927</v>
       </c>
       <c r="J25">
-        <v>10.89521915254888</v>
+        <v>6.248082181768787</v>
       </c>
       <c r="L25">
-        <v>10.41641664866664</v>
+        <v>5.720481797459405</v>
       </c>
       <c r="O25">
         <v>0</v>
